--- a/data/trans_orig/P16A_n_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R3-Provincia-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5195</v>
+        <v>5917</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006245834220792771</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0190271289725672</v>
+        <v>0.02167335975846558</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>7519</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3290</v>
+        <v>3133</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14749</v>
+        <v>14493</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02882735744466942</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01261299286732373</v>
+        <v>0.0120103933707122</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05654307764024021</v>
+        <v>0.0555627733243611</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -786,19 +786,19 @@
         <v>9224</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4445</v>
+        <v>4508</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18246</v>
+        <v>16503</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01727916406306319</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008326861355341435</v>
+        <v>0.008444940912812464</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03417846787784885</v>
+        <v>0.03091257401033183</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>271305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>267815</v>
+        <v>267093</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>273010</v>
@@ -824,7 +824,7 @@
         <v>0.9937541657792073</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9809728710274329</v>
+        <v>0.9783266402415344</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>253319</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>246089</v>
+        <v>246345</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>257548</v>
+        <v>257705</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9711726425553305</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9434569223597604</v>
+        <v>0.9444372266756387</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9873870071326764</v>
+        <v>0.9879896066292878</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>507</v>
@@ -857,19 +857,19 @@
         <v>524624</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>515602</v>
+        <v>517345</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>529403</v>
+        <v>529340</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9827208359369368</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9658215321221512</v>
+        <v>0.9690874259896681</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9916731386446586</v>
+        <v>0.9915550590871877</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>6070</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2077</v>
+        <v>2903</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13178</v>
+        <v>12570</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01231041217579385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004211698698814346</v>
+        <v>0.005888339964398827</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02672543607493253</v>
+        <v>0.02549407352891687</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -982,19 +982,19 @@
         <v>20001</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12255</v>
+        <v>13166</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30226</v>
+        <v>31312</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03968756295739197</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.024317802149672</v>
+        <v>0.02612636963897602</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05997909713559407</v>
+        <v>0.06213369284081565</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -1003,19 +1003,19 @@
         <v>26070</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17063</v>
+        <v>17876</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37082</v>
+        <v>37701</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02614828072698447</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0171135931676571</v>
+        <v>0.01792975804787836</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03719264483127432</v>
+        <v>0.03781364001054808</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>487005</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>479897</v>
+        <v>480505</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>490998</v>
+        <v>490172</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9876895878242061</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9732745639250674</v>
+        <v>0.9745059264710818</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9957883013011857</v>
+        <v>0.994111660035601</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>479</v>
@@ -1053,19 +1053,19 @@
         <v>483948</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>473723</v>
+        <v>472637</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>491694</v>
+        <v>490783</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.960312437042608</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.940020902864406</v>
+        <v>0.9378663071591844</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9756821978503279</v>
+        <v>0.973873630361024</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>938</v>
@@ -1074,19 +1074,19 @@
         <v>970954</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>959942</v>
+        <v>959323</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>979961</v>
+        <v>979148</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9738517192730155</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9628073551687257</v>
+        <v>0.9621863599894519</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.982886406832343</v>
+        <v>0.9820702419521217</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5779</v>
+        <v>5752</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002977527356116165</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01812463381299061</v>
+        <v>0.01803971436717423</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4758</v>
+        <v>4775</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001451067544503235</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007272282729527229</v>
+        <v>0.007298246854196857</v>
       </c>
     </row>
     <row r="11">
@@ -1241,7 +1241,7 @@
         <v>317897</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>313067</v>
+        <v>313094</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318846</v>
@@ -1250,7 +1250,7 @@
         <v>0.9970224726438839</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9818753661870093</v>
+        <v>0.9819602856328258</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>653309</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>649500</v>
+        <v>649483</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>654258</v>
@@ -1284,7 +1284,7 @@
         <v>0.9985489324554968</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9927277172704728</v>
+        <v>0.9927017531458031</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1379,19 +1379,19 @@
         <v>2649</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7053</v>
+        <v>7658</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00738571870024741</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002347579629638611</v>
+        <v>0.002336451155591232</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01966371769810828</v>
+        <v>0.02135164550443326</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1400,19 +1400,19 @@
         <v>7937</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3911</v>
+        <v>3666</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15615</v>
+        <v>15512</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02136792008565804</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01052813867595448</v>
+        <v>0.009870560184275541</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04203597772199628</v>
+        <v>0.04175964212855672</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1421,19 +1421,19 @@
         <v>10586</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5595</v>
+        <v>5376</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17996</v>
+        <v>17723</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01449923670594518</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007663388852851965</v>
+        <v>0.007362820156009797</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02464708571529211</v>
+        <v>0.02427451238450945</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>356022</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>351618</v>
+        <v>351013</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357829</v>
+        <v>357833</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9926142812997526</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9803362823018916</v>
+        <v>0.9786483544955651</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9976524203703614</v>
+        <v>0.9976635488444088</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>376</v>
@@ -1471,19 +1471,19 @@
         <v>363519</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>355841</v>
+        <v>355944</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>367545</v>
+        <v>367790</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.978632079914342</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9579640222780037</v>
+        <v>0.9582403578714432</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9894718613240455</v>
+        <v>0.9901294398157244</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>735</v>
@@ -1492,19 +1492,19 @@
         <v>719541</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>712131</v>
+        <v>712404</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>724532</v>
+        <v>724751</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9855007632940548</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9753529142847093</v>
+        <v>0.9757254876154914</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9923366111471481</v>
+        <v>0.9926371798439904</v>
       </c>
     </row>
     <row r="15">
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3832</v>
+        <v>4466</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004358122981615619</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01884614209139933</v>
+        <v>0.0219654768247788</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1617,19 +1617,19 @@
         <v>4127</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1207</v>
+        <v>996</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10033</v>
+        <v>10394</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01987125818052656</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005812404023942693</v>
+        <v>0.004793801675561334</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04831409142328839</v>
+        <v>0.05004984552344008</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1638,19 +1638,19 @@
         <v>5013</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11129</v>
+        <v>11240</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01219697829169999</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004476834704475608</v>
+        <v>0.004474730976407159</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02707970159690057</v>
+        <v>0.02735050154433612</v>
       </c>
     </row>
     <row r="17">
@@ -1667,7 +1667,7 @@
         <v>202422</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>199476</v>
+        <v>198842</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>203308</v>
@@ -1676,7 +1676,7 @@
         <v>0.9956418770183844</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9811538579086002</v>
+        <v>0.9780345231752212</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1688,19 +1688,19 @@
         <v>203541</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>197635</v>
+        <v>197274</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206461</v>
+        <v>206672</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9801287418194734</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9516859085767116</v>
+        <v>0.9499501544765607</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9941875959760573</v>
+        <v>0.9952061983244387</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>399</v>
@@ -1709,19 +1709,19 @@
         <v>405963</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>399847</v>
+        <v>399736</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>409136</v>
+        <v>409137</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9878030217083</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9729202984030996</v>
+        <v>0.9726494984556633</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9955231652955245</v>
+        <v>0.9955252690235927</v>
       </c>
     </row>
     <row r="18">
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6882</v>
+        <v>6152</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006512672376077863</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02541225265337492</v>
+        <v>0.02271620940164504</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1834,19 +1834,19 @@
         <v>3042</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8365</v>
+        <v>8095</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01093580928836325</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003263156330199506</v>
+        <v>0.003285179936909401</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03007527378811386</v>
+        <v>0.02910338925967013</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1855,19 +1855,19 @@
         <v>4805</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1826</v>
+        <v>1832</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11444</v>
+        <v>10360</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008753783185473559</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003326915186660207</v>
+        <v>0.003337947015236575</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02084777021924681</v>
+        <v>0.01887213846076359</v>
       </c>
     </row>
     <row r="20">
@@ -1884,7 +1884,7 @@
         <v>269047</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>263929</v>
+        <v>264659</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>270811</v>
@@ -1893,7 +1893,7 @@
         <v>0.9934873276239221</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.974587747346625</v>
+        <v>0.9772837905983549</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1905,19 +1905,19 @@
         <v>275102</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>269779</v>
+        <v>270049</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277236</v>
+        <v>277230</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9890641907116368</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9699247262118861</v>
+        <v>0.97089661074033</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9967368436698004</v>
+        <v>0.9967148200630906</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>531</v>
@@ -1926,19 +1926,19 @@
         <v>544150</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>537511</v>
+        <v>538595</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>547129</v>
+        <v>547123</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9912462168145264</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.979152229780752</v>
+        <v>0.9811278615392367</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9966730848133398</v>
+        <v>0.9966620529847635</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>13141</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7059</v>
+        <v>7070</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22507</v>
+        <v>22042</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02136587978040174</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01147736977265083</v>
+        <v>0.01149481756879276</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03659455760329955</v>
+        <v>0.03583952011192584</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2051,19 +2051,19 @@
         <v>12532</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6768</v>
+        <v>6618</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20501</v>
+        <v>20446</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0196354946384673</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01060481266036318</v>
+        <v>0.01036924267810559</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03212188305269666</v>
+        <v>0.03203542594307922</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -2072,19 +2072,19 @@
         <v>25672</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17297</v>
+        <v>17199</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38041</v>
+        <v>38077</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02048467632630596</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0138020976830711</v>
+        <v>0.01372389347312507</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03035404992362975</v>
+        <v>0.03038257192695579</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>601886</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>592520</v>
+        <v>592985</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>607968</v>
+        <v>607957</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9786341202195983</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9634054423966997</v>
+        <v>0.964160479888074</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9885226302273488</v>
+        <v>0.9885051824312072</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>608</v>
@@ -2122,19 +2122,19 @@
         <v>625687</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>617718</v>
+        <v>617773</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>631451</v>
+        <v>631601</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9803645053615327</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9678781169473034</v>
+        <v>0.9679645740569208</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9893951873396368</v>
+        <v>0.9896307573218944</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1193</v>
@@ -2143,19 +2143,19 @@
         <v>1227574</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1215205</v>
+        <v>1215169</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1235949</v>
+        <v>1236047</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9795153236736941</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9696459500763706</v>
+        <v>0.9696174280730446</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9861979023169289</v>
+        <v>0.9862761065268751</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>21250</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13077</v>
+        <v>13544</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32226</v>
+        <v>32723</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02857022332056332</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01758104717869111</v>
+        <v>0.01820929635059275</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04332582529561876</v>
+        <v>0.04399510317932624</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -2268,19 +2268,19 @@
         <v>31788</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21764</v>
+        <v>21249</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44801</v>
+        <v>44698</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04057182659162695</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02777777369447815</v>
+        <v>0.02712084432057983</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05717984876920954</v>
+        <v>0.05704775268137803</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -2289,19 +2289,19 @@
         <v>53039</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40370</v>
+        <v>39065</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>68433</v>
+        <v>69596</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03472706937682402</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02643193544266671</v>
+        <v>0.02557748030529686</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04480654313526686</v>
+        <v>0.04556756180727096</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>722545</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>711569</v>
+        <v>711072</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>730718</v>
+        <v>730251</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9714297766794366</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9566741747043807</v>
+        <v>0.9560048968206736</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9824189528213089</v>
+        <v>0.9817907036494072</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>716</v>
@@ -2339,19 +2339,19 @@
         <v>751723</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>738710</v>
+        <v>738813</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>761747</v>
+        <v>762262</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9594281734083731</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9428201512307903</v>
+        <v>0.9429522473186219</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9722222263055218</v>
+        <v>0.9728791556794202</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1430</v>
@@ -2360,19 +2360,19 @@
         <v>1474267</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1458873</v>
+        <v>1457710</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1486936</v>
+        <v>1488241</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.965272930623176</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9551934568647332</v>
+        <v>0.9544324381927293</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9735680645573334</v>
+        <v>0.9744225196947032</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>48414</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>36773</v>
+        <v>37491</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>63778</v>
+        <v>63100</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01477602252712973</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01122318022834878</v>
+        <v>0.01144238637360486</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01946498160689208</v>
+        <v>0.01925800713609086</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>84</v>
@@ -2485,19 +2485,19 @@
         <v>86946</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>69124</v>
+        <v>70220</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>107438</v>
+        <v>108831</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02572966005616997</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02045573238250396</v>
+        <v>0.02078010317046013</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03179400011348867</v>
+        <v>0.0322062430309303</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>134</v>
@@ -2506,19 +2506,19 @@
         <v>135360</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>111113</v>
+        <v>112029</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>158867</v>
+        <v>157395</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02033731232419787</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01669427122577981</v>
+        <v>0.01683195214914444</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02386913079493733</v>
+        <v>0.02364799133010926</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>3228129</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3212765</v>
+        <v>3213443</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3239770</v>
+        <v>3239052</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9852239774728703</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9805350183931079</v>
+        <v>0.9807419928639091</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9887768197716511</v>
+        <v>0.988557613626395</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3213</v>
@@ -2556,19 +2556,19 @@
         <v>3292251</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3271759</v>
+        <v>3270366</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3310073</v>
+        <v>3308977</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9742703399438301</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9682059998865112</v>
+        <v>0.9677937569690697</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.979544267617496</v>
+        <v>0.9792198968295398</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6377</v>
@@ -2577,19 +2577,19 @@
         <v>6520381</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6496874</v>
+        <v>6498346</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6544628</v>
+        <v>6543712</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9796626876758021</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9761308692050616</v>
+        <v>0.9763520086698906</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.98330572877422</v>
+        <v>0.983168047850855</v>
       </c>
     </row>
     <row r="30">
@@ -2925,19 +2925,19 @@
         <v>6729</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1994</v>
+        <v>1941</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15398</v>
+        <v>15260</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02283076612498703</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006766962204834996</v>
+        <v>0.006585259796053078</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05224234886196395</v>
+        <v>0.05177343821998519</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2946,19 +2946,19 @@
         <v>8004</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3969</v>
+        <v>2990</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15876</v>
+        <v>15100</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02786439398011807</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0138183917870883</v>
+        <v>0.01040758808580696</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05527078639437039</v>
+        <v>0.05256928628368383</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -2967,19 +2967,19 @@
         <v>14733</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8028</v>
+        <v>8049</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24748</v>
+        <v>25214</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02531517607777412</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01379388421734967</v>
+        <v>0.01382992404159092</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04252417604854903</v>
+        <v>0.04332382770845963</v>
       </c>
     </row>
     <row r="5">
@@ -2996,19 +2996,19 @@
         <v>288009</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279340</v>
+        <v>279478</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292744</v>
+        <v>292797</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.977169233875013</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9477576511380367</v>
+        <v>0.9482265617800149</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.993233037795165</v>
+        <v>0.9934147402039469</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>248</v>
@@ -3017,19 +3017,19 @@
         <v>279241</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>271369</v>
+        <v>272145</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>283276</v>
+        <v>284255</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9721356060198819</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9447292136056303</v>
+        <v>0.9474307137163162</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9861816082129117</v>
+        <v>0.9895924119141931</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>525</v>
@@ -3038,19 +3038,19 @@
         <v>567250</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>557235</v>
+        <v>556769</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>573955</v>
+        <v>573934</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9746848239222259</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.957475823951451</v>
+        <v>0.9566761722915407</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9862061157826504</v>
+        <v>0.9861700759584091</v>
       </c>
     </row>
     <row r="6">
@@ -3142,19 +3142,19 @@
         <v>19160</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10146</v>
+        <v>11520</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31313</v>
+        <v>31818</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03790153716481319</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02006937250989399</v>
+        <v>0.02278878198238451</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06194096291429242</v>
+        <v>0.06293968394171155</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -3163,19 +3163,19 @@
         <v>33886</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24020</v>
+        <v>23350</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49549</v>
+        <v>46672</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06469723735389032</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04586048368622984</v>
+        <v>0.04458087424961337</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09460078342243811</v>
+        <v>0.08910827247039581</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -3184,19 +3184,19 @@
         <v>53046</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39201</v>
+        <v>40221</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68980</v>
+        <v>71664</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0515367800925518</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03808571959798775</v>
+        <v>0.03907683946356106</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06701714250234225</v>
+        <v>0.06962502816101362</v>
       </c>
     </row>
     <row r="8">
@@ -3213,19 +3213,19 @@
         <v>486367</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>474214</v>
+        <v>473709</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>495381</v>
+        <v>494007</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9620984628351869</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9380590370857076</v>
+        <v>0.9370603160582884</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.979930627490106</v>
+        <v>0.9772112180176155</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>449</v>
@@ -3234,19 +3234,19 @@
         <v>489879</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>474216</v>
+        <v>477093</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>499745</v>
+        <v>500415</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9353027626461097</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9053992165775619</v>
+        <v>0.9108917275296042</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9541395163137705</v>
+        <v>0.9554191257503869</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>907</v>
@@ -3255,19 +3255,19 @@
         <v>976246</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>960312</v>
+        <v>957628</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>990091</v>
+        <v>989071</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9484632199074482</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9329828574976575</v>
+        <v>0.9303749718389862</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9619142804020122</v>
+        <v>0.9609231605364389</v>
       </c>
     </row>
     <row r="9">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5794</v>
+        <v>4770</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003169900812142157</v>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01788128287169086</v>
+        <v>0.01472117061184459</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3380,19 +3380,19 @@
         <v>5314</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2048</v>
+        <v>2147</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11987</v>
+        <v>11590</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01558377435845411</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00600475535407829</v>
+        <v>0.006296369247268249</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03515027343967238</v>
+        <v>0.03398642612086689</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -3401,19 +3401,19 @@
         <v>6342</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2166</v>
+        <v>2212</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12670</v>
+        <v>13963</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009535252824069028</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003256624860776176</v>
+        <v>0.003326534448312624</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01905037038434186</v>
+        <v>0.02099559458702318</v>
       </c>
     </row>
     <row r="11">
@@ -3430,7 +3430,7 @@
         <v>323019</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>318252</v>
+        <v>319276</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>324046</v>
@@ -3439,7 +3439,7 @@
         <v>0.9968300991878578</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9821187171283091</v>
+        <v>0.9852788293881548</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3451,19 +3451,19 @@
         <v>335706</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>329033</v>
+        <v>329430</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>338972</v>
+        <v>338873</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9844162256415459</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9648497265603293</v>
+        <v>0.9660135738791332</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9939952446459217</v>
+        <v>0.9937036307527317</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>630</v>
@@ -3472,19 +3472,19 @@
         <v>658724</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>652396</v>
+        <v>651103</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>662900</v>
+        <v>662854</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.990464747175931</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9809496296156586</v>
+        <v>0.9790044054129768</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9967433751392238</v>
+        <v>0.9966734655516873</v>
       </c>
     </row>
     <row r="12">
@@ -3576,19 +3576,19 @@
         <v>4725</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1189</v>
+        <v>1155</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11022</v>
+        <v>10694</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01263558307446203</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003178526544419415</v>
+        <v>0.003088193623427328</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02947107738872423</v>
+        <v>0.02859509061652093</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -3597,19 +3597,19 @@
         <v>30591</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21129</v>
+        <v>21036</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41964</v>
+        <v>42723</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07865062082060023</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05432257933758077</v>
+        <v>0.05408349694124401</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1078904647083012</v>
+        <v>0.1098403587192964</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -3618,19 +3618,19 @@
         <v>35317</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25409</v>
+        <v>25056</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49494</v>
+        <v>47914</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04629071523608471</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03330445630658534</v>
+        <v>0.03284229261234072</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06487345907564812</v>
+        <v>0.06280257269780733</v>
       </c>
     </row>
     <row r="14">
@@ -3647,19 +3647,19 @@
         <v>369257</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>362960</v>
+        <v>363288</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>372793</v>
+        <v>372827</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.987364416925538</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9705289226112759</v>
+        <v>0.9714049093834792</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9968214734555806</v>
+        <v>0.9969118063765726</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>341</v>
@@ -3668,19 +3668,19 @@
         <v>358360</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>346987</v>
+        <v>346228</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>367822</v>
+        <v>367915</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9213493791793997</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8921095352916986</v>
+        <v>0.8901596412807042</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9456774206624191</v>
+        <v>0.9459165030587561</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>681</v>
@@ -3689,19 +3689,19 @@
         <v>727616</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>713439</v>
+        <v>715019</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>737524</v>
+        <v>737877</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9537092847639153</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9351265409243519</v>
+        <v>0.9371974273021927</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9666955436934146</v>
+        <v>0.9671577073876593</v>
       </c>
     </row>
     <row r="15">
@@ -3793,19 +3793,19 @@
         <v>9791</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4456</v>
+        <v>4463</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18116</v>
+        <v>17402</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04604958442380115</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0209557978976102</v>
+        <v>0.02098979862950205</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08520381197706435</v>
+        <v>0.08184664457707057</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -3814,19 +3814,19 @@
         <v>31665</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22623</v>
+        <v>21439</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44538</v>
+        <v>42407</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1441991957314093</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1030250100016507</v>
+        <v>0.09763302341819012</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2028230918139668</v>
+        <v>0.1931182129895881</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -3835,19 +3835,19 @@
         <v>41456</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30296</v>
+        <v>30907</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54479</v>
+        <v>55510</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09591612892800093</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07009562760102075</v>
+        <v>0.07150951446204223</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1260479695586355</v>
+        <v>0.1284330168537229</v>
       </c>
     </row>
     <row r="17">
@@ -3864,19 +3864,19 @@
         <v>202827</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>194502</v>
+        <v>195216</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208162</v>
+        <v>208155</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9539504155761989</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9147961880229353</v>
+        <v>0.9181533554229293</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9790442021023897</v>
+        <v>0.979010201370498</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>182</v>
@@ -3885,19 +3885,19 @@
         <v>187926</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>175053</v>
+        <v>177184</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>196968</v>
+        <v>198152</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8558008042685906</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7971769081860332</v>
+        <v>0.8068817870104119</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8969749899983492</v>
+        <v>0.9023669765818101</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>369</v>
@@ -3906,19 +3906,19 @@
         <v>390753</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>377730</v>
+        <v>376699</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>401913</v>
+        <v>401302</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9040838710719991</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8739520304413645</v>
+        <v>0.8715669831462771</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9299043723989792</v>
+        <v>0.9284904855379578</v>
       </c>
     </row>
     <row r="18">
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7133</v>
+        <v>7002</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007467690930748611</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02603418375070263</v>
+        <v>0.02555738821457447</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -4031,19 +4031,19 @@
         <v>6179</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13153</v>
+        <v>12675</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02206445643940526</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007851592457560421</v>
+        <v>0.007864305714243113</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04697105704841</v>
+        <v>0.04526149826993733</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -4052,19 +4052,19 @@
         <v>8225</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4017</v>
+        <v>3741</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16239</v>
+        <v>15270</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01484577444159424</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00725073071483521</v>
+        <v>0.006753239063737057</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02931102657387189</v>
+        <v>0.02756171172991849</v>
       </c>
     </row>
     <row r="20">
@@ -4081,7 +4081,7 @@
         <v>271935</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>266848</v>
+        <v>266979</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>273981</v>
@@ -4090,7 +4090,7 @@
         <v>0.9925323090692514</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9739658162492973</v>
+        <v>0.9744426117854252</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4102,19 +4102,19 @@
         <v>273852</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>266878</v>
+        <v>267356</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277832</v>
+        <v>277829</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9779355435605948</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9530289429515884</v>
+        <v>0.9547385017300623</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9921484075424394</v>
+        <v>0.9921356942857564</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>522</v>
@@ -4123,19 +4123,19 @@
         <v>545787</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>537773</v>
+        <v>538742</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>549995</v>
+        <v>550271</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9851542255584057</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9706889734261296</v>
+        <v>0.9724382882700816</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9927492692851648</v>
+        <v>0.9932467609362665</v>
       </c>
     </row>
     <row r="21">
@@ -4227,19 +4227,19 @@
         <v>10037</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4888</v>
+        <v>4108</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19145</v>
+        <v>18054</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01514383104324228</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007374935726420331</v>
+        <v>0.006197753081175733</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02888557452324603</v>
+        <v>0.02723960108516825</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -4248,19 +4248,19 @@
         <v>19208</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11848</v>
+        <v>12488</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29693</v>
+        <v>29762</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02768270084078816</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01707512450132736</v>
+        <v>0.01799827295429409</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04279424610532798</v>
+        <v>0.04289432526028085</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -4269,19 +4269,19 @@
         <v>29245</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19685</v>
+        <v>19539</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42456</v>
+        <v>41804</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02155682607625401</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01451043901448424</v>
+        <v>0.01440269856992777</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03129490611840859</v>
+        <v>0.0308140095816858</v>
       </c>
     </row>
     <row r="23">
@@ -4298,19 +4298,19 @@
         <v>652751</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>643643</v>
+        <v>644734</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>657900</v>
+        <v>658680</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9848561689567578</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9711144254767538</v>
+        <v>0.9727603989148317</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9926250642735797</v>
+        <v>0.9938022469188242</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>618</v>
@@ -4319,19 +4319,19 @@
         <v>674645</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>664160</v>
+        <v>664091</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>682005</v>
+        <v>681365</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9723172991592118</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9572057538946718</v>
+        <v>0.9571056747397192</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9829248754986726</v>
+        <v>0.9820017270457062</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1227</v>
@@ -4340,19 +4340,19 @@
         <v>1327396</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1314185</v>
+        <v>1314837</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1336956</v>
+        <v>1337102</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.978443173923746</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9687050938815913</v>
+        <v>0.9691859904183141</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9854895609855158</v>
+        <v>0.985597301430072</v>
       </c>
     </row>
     <row r="24">
@@ -4444,19 +4444,19 @@
         <v>8378</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3952</v>
+        <v>3245</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18719</v>
+        <v>16849</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0107539013815871</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005073045332983544</v>
+        <v>0.004165536808370996</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02402713051102197</v>
+        <v>0.02162576117527968</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -4465,19 +4465,19 @@
         <v>42284</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31084</v>
+        <v>31802</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>58344</v>
+        <v>56940</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05132413135361729</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03773022166069828</v>
+        <v>0.03860103081639573</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07081810518140777</v>
+        <v>0.06911413764616429</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>45</v>
@@ -4486,19 +4486,19 @@
         <v>50662</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37108</v>
+        <v>37725</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>65960</v>
+        <v>66518</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03160538098397326</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02314954305710409</v>
+        <v>0.02353471333326375</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04114904880445538</v>
+        <v>0.041497485735207</v>
       </c>
     </row>
     <row r="26">
@@ -4515,19 +4515,19 @@
         <v>770720</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>760379</v>
+        <v>762249</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>775146</v>
+        <v>775853</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.989246098618413</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.975972869488978</v>
+        <v>0.9783742388247203</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9949269546670164</v>
+        <v>0.995834463191629</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>719</v>
@@ -4536,19 +4536,19 @@
         <v>781569</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>765509</v>
+        <v>766913</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>792769</v>
+        <v>792051</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9486758686463828</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9291818948185923</v>
+        <v>0.9308858623538359</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9622697783393017</v>
+        <v>0.9613989691836048</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1429</v>
@@ -4557,19 +4557,19 @@
         <v>1552289</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1536991</v>
+        <v>1536433</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1565843</v>
+        <v>1565226</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9683946190160267</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9588509511955445</v>
+        <v>0.958502514264793</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9768504569428957</v>
+        <v>0.9764652866667364</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>61895</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>45717</v>
+        <v>45518</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>80250</v>
+        <v>80822</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01806200773201485</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01334097054065172</v>
+        <v>0.01328310100913626</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02341855380116064</v>
+        <v>0.02358539578053638</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>166</v>
@@ -4682,19 +4682,19 @@
         <v>177131</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>151162</v>
+        <v>150557</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>205659</v>
+        <v>204084</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04977940768485412</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04248134640155079</v>
+        <v>0.04231144856261884</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05779687767814759</v>
+        <v>0.05735410153037578</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>217</v>
@@ -4703,19 +4703,19 @@
         <v>239025</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>207961</v>
+        <v>208872</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>275036</v>
+        <v>273415</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.034219329349839</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02977215403099625</v>
+        <v>0.0299025460391752</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03937474411350065</v>
+        <v>0.03914267254379527</v>
       </c>
     </row>
     <row r="29">
@@ -4732,19 +4732,19 @@
         <v>3364884</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3346529</v>
+        <v>3345957</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3381062</v>
+        <v>3381261</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9819379922679852</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9765814461988394</v>
+        <v>0.9764146042194634</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9866590294593481</v>
+        <v>0.9867168989908637</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3132</v>
@@ -4753,19 +4753,19 @@
         <v>3381178</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3352650</v>
+        <v>3354225</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3407147</v>
+        <v>3407752</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9502205923151459</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9422031223218522</v>
+        <v>0.9426458984696242</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9575186535984492</v>
+        <v>0.9576885514373811</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6290</v>
@@ -4774,19 +4774,19 @@
         <v>6746063</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6710052</v>
+        <v>6711673</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6777127</v>
+        <v>6776216</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.965780670650161</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9606252558864993</v>
+        <v>0.9608573274562047</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9702278459690037</v>
+        <v>0.9700974539608248</v>
       </c>
     </row>
     <row r="30">
@@ -5122,19 +5122,19 @@
         <v>5392</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2004</v>
+        <v>2513</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10755</v>
+        <v>11345</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01835567457056504</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006820916846471325</v>
+        <v>0.008554382796641686</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03661254878710862</v>
+        <v>0.0386199324594154</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -5143,19 +5143,19 @@
         <v>9316</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4141</v>
+        <v>4216</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15922</v>
+        <v>16255</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03226958137314775</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0143449092031161</v>
+        <v>0.01460285936824958</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05514993473204986</v>
+        <v>0.05630218385580432</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -5164,19 +5164,19 @@
         <v>14709</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8725</v>
+        <v>8247</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24458</v>
+        <v>23663</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02525221517889642</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01497924875817651</v>
+        <v>0.01415918349302008</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04199073183464965</v>
+        <v>0.04062522174041199</v>
       </c>
     </row>
     <row r="5">
@@ -5193,19 +5193,19 @@
         <v>288369</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>283006</v>
+        <v>282416</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291757</v>
+        <v>291248</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9816443254294349</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9633874512128915</v>
+        <v>0.9613800675405845</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9931790831535289</v>
+        <v>0.9914456172033582</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>268</v>
@@ -5214,19 +5214,19 @@
         <v>279387</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>272781</v>
+        <v>272448</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284562</v>
+        <v>284487</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9677304186268523</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9448500652679503</v>
+        <v>0.9436978161441952</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9856550907968838</v>
+        <v>0.9853971406317504</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>528</v>
@@ -5235,19 +5235,19 @@
         <v>567755</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>558006</v>
+        <v>558801</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>573739</v>
+        <v>574217</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9747477848211036</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9580092681653505</v>
+        <v>0.9593747782595878</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9850207512418235</v>
+        <v>0.9858408165069792</v>
       </c>
     </row>
     <row r="6">
@@ -5339,19 +5339,19 @@
         <v>7853</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3828</v>
+        <v>3785</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15170</v>
+        <v>15029</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01562530202278585</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007616799631978954</v>
+        <v>0.007531600253735881</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03018516116706597</v>
+        <v>0.02990477700338466</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -5360,19 +5360,19 @@
         <v>17252</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9493</v>
+        <v>9774</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27011</v>
+        <v>27346</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03298193593346473</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01814787642741545</v>
+        <v>0.01868497655600077</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05163852138121165</v>
+        <v>0.05227910346536665</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -5381,19 +5381,19 @@
         <v>25105</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16126</v>
+        <v>16207</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37248</v>
+        <v>37586</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02447714682913601</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01572214751041394</v>
+        <v>0.01580182313362906</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03631607479431867</v>
+        <v>0.03664534795696223</v>
       </c>
     </row>
     <row r="8">
@@ -5410,19 +5410,19 @@
         <v>494722</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>487405</v>
+        <v>487546</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>498747</v>
+        <v>498790</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9843746979772141</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9698148388329343</v>
+        <v>0.9700952229966149</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9923832003680211</v>
+        <v>0.9924683997462641</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>469</v>
@@ -5431,19 +5431,19 @@
         <v>505832</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>496073</v>
+        <v>495738</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>513591</v>
+        <v>513310</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9670180640665352</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9483614786187883</v>
+        <v>0.9477208965346333</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9818521235725846</v>
+        <v>0.9813150234439992</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>936</v>
@@ -5452,19 +5452,19 @@
         <v>1000554</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>988411</v>
+        <v>988073</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1009533</v>
+        <v>1009452</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.975522853170864</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9636839252056814</v>
+        <v>0.9633546520430377</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9842778524895861</v>
+        <v>0.9841981768663709</v>
       </c>
     </row>
     <row r="9">
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5438</v>
+        <v>4727</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004912963708171903</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01706895947009865</v>
+        <v>0.01483904757344106</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -5577,19 +5577,19 @@
         <v>6488</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2067</v>
+        <v>2895</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13944</v>
+        <v>13692</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.019293128287581</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006144730296623476</v>
+        <v>0.008606941000169907</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04146100793335333</v>
+        <v>0.0407128926783478</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -5598,19 +5598,19 @@
         <v>8054</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3661</v>
+        <v>3549</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15652</v>
+        <v>15731</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01229786340064097</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005590883768418195</v>
+        <v>0.005419963045720316</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02390083921596359</v>
+        <v>0.02402130568657762</v>
       </c>
     </row>
     <row r="11">
@@ -5627,7 +5627,7 @@
         <v>317000</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>313127</v>
+        <v>313838</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318565</v>
@@ -5636,7 +5636,7 @@
         <v>0.995087036291828</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9829310405299012</v>
+        <v>0.9851609524265589</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5648,19 +5648,19 @@
         <v>329821</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>322365</v>
+        <v>322617</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334242</v>
+        <v>333414</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.980706871712419</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9585389920666465</v>
+        <v>0.9592871073216522</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9938552697033766</v>
+        <v>0.9913930589998301</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>659</v>
@@ -5669,19 +5669,19 @@
         <v>646820</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>639222</v>
+        <v>639143</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>651213</v>
+        <v>651325</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.987702136599359</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9760991607840364</v>
+        <v>0.9759786943134227</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9944091162315818</v>
+        <v>0.9945800369542798</v>
       </c>
     </row>
     <row r="12">
@@ -5773,19 +5773,19 @@
         <v>9084</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4322</v>
+        <v>4489</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15140</v>
+        <v>15928</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02455382417980308</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01168115246173734</v>
+        <v>0.01213488092013593</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0409236291567214</v>
+        <v>0.04305335190514747</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -5794,19 +5794,19 @@
         <v>28684</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19732</v>
+        <v>18983</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41673</v>
+        <v>41013</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07406411196230751</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05095106857954352</v>
+        <v>0.04901497051135075</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1076036813502205</v>
+        <v>0.1058984211220741</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -5815,19 +5815,19 @@
         <v>37768</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26900</v>
+        <v>27935</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51345</v>
+        <v>52525</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0498751431811948</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03552372565481089</v>
+        <v>0.03688992200830928</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06780503768046495</v>
+        <v>0.06936314215080291</v>
       </c>
     </row>
     <row r="14">
@@ -5844,19 +5844,19 @@
         <v>360880</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>354824</v>
+        <v>354036</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>365642</v>
+        <v>365475</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9754461758201969</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9590763708432798</v>
+        <v>0.9569466480948543</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9883188475382627</v>
+        <v>0.9878651190798641</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>332</v>
@@ -5865,19 +5865,19 @@
         <v>358599</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>345610</v>
+        <v>346270</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>367551</v>
+        <v>368300</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9259358880376924</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8923963186497796</v>
+        <v>0.8941015788779261</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9490489314204565</v>
+        <v>0.9509850294886494</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>676</v>
@@ -5886,19 +5886,19 @@
         <v>719479</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>705902</v>
+        <v>704722</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>730347</v>
+        <v>729312</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9501248568188052</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.932194962319535</v>
+        <v>0.9306368578491971</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9644762743451891</v>
+        <v>0.9631100779916908</v>
       </c>
     </row>
     <row r="15">
@@ -5990,19 +5990,19 @@
         <v>2771</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7679</v>
+        <v>7884</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01311952915743999</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003862603289791323</v>
+        <v>0.003825981022782225</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03635514663237232</v>
+        <v>0.03732679215109527</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -6011,19 +6011,19 @@
         <v>10506</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5441</v>
+        <v>5111</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18310</v>
+        <v>18591</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04806218968370567</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02489051891276922</v>
+        <v>0.02338104513373486</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08376313855561981</v>
+        <v>0.08504923379596847</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -6032,19 +6032,19 @@
         <v>13277</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7386</v>
+        <v>7721</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21900</v>
+        <v>22530</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03089028113831914</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01718430489593941</v>
+        <v>0.01796315111642996</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05095195661725619</v>
+        <v>0.05241841695358022</v>
       </c>
     </row>
     <row r="17">
@@ -6061,19 +6061,19 @@
         <v>208450</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>203542</v>
+        <v>203337</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210405</v>
+        <v>210413</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.98688047084256</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9636448533676277</v>
+        <v>0.9626732078489046</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9961373967102087</v>
+        <v>0.9961740189772178</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>213</v>
@@ -6082,19 +6082,19 @@
         <v>208081</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>200277</v>
+        <v>199996</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>213146</v>
+        <v>213476</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9519378103162943</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9162368614443801</v>
+        <v>0.9149507662040315</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9751094810872308</v>
+        <v>0.9766189548662654</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>422</v>
@@ -6103,19 +6103,19 @@
         <v>416531</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>407908</v>
+        <v>407278</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>422422</v>
+        <v>422087</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9691097188616808</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9490480433827437</v>
+        <v>0.9475815830464197</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9828156951040605</v>
+        <v>0.9820368488835698</v>
       </c>
     </row>
     <row r="18">
@@ -6207,19 +6207,19 @@
         <v>6390</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2578</v>
+        <v>2699</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12825</v>
+        <v>11977</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02428423893675312</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009796839579926643</v>
+        <v>0.01025634629635906</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0487397313441395</v>
+        <v>0.04551824012194605</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -6228,19 +6228,19 @@
         <v>16761</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9468</v>
+        <v>9513</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25932</v>
+        <v>27129</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06136886624132847</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03466593667500519</v>
+        <v>0.03483198034044824</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09494958149002823</v>
+        <v>0.09933270033626819</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -6249,19 +6249,19 @@
         <v>23150</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15125</v>
+        <v>15013</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34356</v>
+        <v>34826</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04317206115316249</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02820565987534349</v>
+        <v>0.02799626538737652</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06406915023713397</v>
+        <v>0.06494415037700416</v>
       </c>
     </row>
     <row r="20">
@@ -6278,19 +6278,19 @@
         <v>256733</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>250298</v>
+        <v>251146</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260545</v>
+        <v>260424</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9757157610632469</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9512602686558606</v>
+        <v>0.9544817598780539</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9902031604200734</v>
+        <v>0.9897436537036409</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>248</v>
@@ -6299,19 +6299,19 @@
         <v>256354</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>247183</v>
+        <v>245986</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>263647</v>
+        <v>263602</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9386311337586716</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9050504185099717</v>
+        <v>0.9006672996637319</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9653340633249948</v>
+        <v>0.9651680196595517</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>500</v>
@@ -6320,19 +6320,19 @@
         <v>513088</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>501882</v>
+        <v>501412</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>521113</v>
+        <v>521225</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9568279388468375</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9359308497628661</v>
+        <v>0.9350558496229957</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9717943401246566</v>
+        <v>0.9720037346126235</v>
       </c>
     </row>
     <row r="21">
@@ -6424,19 +6424,19 @@
         <v>16970</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9965</v>
+        <v>9427</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27637</v>
+        <v>26621</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02584728679742785</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01517800930461548</v>
+        <v>0.01435834032003099</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04209361014314506</v>
+        <v>0.04054691367621428</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -6445,19 +6445,19 @@
         <v>22075</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14056</v>
+        <v>13799</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34519</v>
+        <v>34305</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03193226565240454</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02033302872789318</v>
+        <v>0.01996173097102533</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04993425235893956</v>
+        <v>0.04962386218082839</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>34</v>
@@ -6466,19 +6466,19 @@
         <v>39045</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>27026</v>
+        <v>27254</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>54111</v>
+        <v>56117</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.028968185370198</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02005134709950981</v>
+        <v>0.02022043818269165</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04014593542233139</v>
+        <v>0.04163428835636993</v>
       </c>
     </row>
     <row r="23">
@@ -6495,19 +6495,19 @@
         <v>639588</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>628921</v>
+        <v>629937</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>646593</v>
+        <v>647131</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9741527132025721</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9579063898568549</v>
+        <v>0.9594530863237858</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9848219906953845</v>
+        <v>0.985641659679969</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>627</v>
@@ -6516,19 +6516,19 @@
         <v>669219</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>656775</v>
+        <v>656989</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>677238</v>
+        <v>677495</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9680677343475954</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9500657476410604</v>
+        <v>0.9503761378191716</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9796669712721069</v>
+        <v>0.9800382690289747</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1192</v>
@@ -6537,19 +6537,19 @@
         <v>1308807</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1293741</v>
+        <v>1291735</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1320826</v>
+        <v>1320598</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.971031814629802</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9598540645776691</v>
+        <v>0.9583657116436304</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9799486529004902</v>
+        <v>0.9797795618173085</v>
       </c>
     </row>
     <row r="24">
@@ -6641,19 +6641,19 @@
         <v>6238</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2515</v>
+        <v>2590</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12644</v>
+        <v>13041</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.00801152584712158</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00323068711554025</v>
+        <v>0.00332643675744184</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01624010575619478</v>
+        <v>0.01674940415280976</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -6662,19 +6662,19 @@
         <v>42131</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29521</v>
+        <v>29557</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>56929</v>
+        <v>57041</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05099517345026616</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03573242656269042</v>
+        <v>0.03577558990965554</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06890779455939833</v>
+        <v>0.06904337658950137</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>41</v>
@@ -6683,19 +6683,19 @@
         <v>48368</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>35574</v>
+        <v>34450</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>64975</v>
+        <v>64174</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03014062464872634</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02216818859079877</v>
+        <v>0.02146742747024755</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04048905260701555</v>
+        <v>0.03998984139116626</v>
       </c>
     </row>
     <row r="26">
@@ -6712,19 +6712,19 @@
         <v>772345</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>765939</v>
+        <v>765542</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>776068</v>
+        <v>775993</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9919884741528784</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9837598942438052</v>
+        <v>0.9832505958471902</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9967693128844598</v>
+        <v>0.9966735632425581</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>720</v>
@@ -6733,19 +6733,19 @@
         <v>784036</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>769238</v>
+        <v>769126</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>796646</v>
+        <v>796610</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9490048265497338</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9310922054406017</v>
+        <v>0.9309566234104987</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9642675734373096</v>
+        <v>0.9642244100903444</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1464</v>
@@ -6754,19 +6754,19 @@
         <v>1556382</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1539775</v>
+        <v>1540576</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1569176</v>
+        <v>1570300</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9698593753512736</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9595109473929845</v>
+        <v>0.9600101586088339</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9778318114092014</v>
+        <v>0.9785325725297526</v>
       </c>
     </row>
     <row r="27">
@@ -6858,19 +6858,19 @@
         <v>56263</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>43132</v>
+        <v>42591</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>72931</v>
+        <v>72328</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01657546778271118</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01270713609225152</v>
+        <v>0.01254758282162147</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02148602713303938</v>
+        <v>0.02130844137025758</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>135</v>
@@ -6879,19 +6879,19 @@
         <v>153213</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>131215</v>
+        <v>129418</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>183773</v>
+        <v>182524</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04322491113654393</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03701900656713414</v>
+        <v>0.03651188979855127</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05184668401652524</v>
+        <v>0.05149443638605214</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>192</v>
@@ -6900,19 +6900,19 @@
         <v>209475</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>179729</v>
+        <v>181583</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>239765</v>
+        <v>241578</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03018860177585751</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0259017388567377</v>
+        <v>0.0261688938662226</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0345538006209021</v>
+        <v>0.03481505442303424</v>
       </c>
     </row>
     <row r="29">
@@ -6929,19 +6929,19 @@
         <v>3338087</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3321419</v>
+        <v>3322022</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3351218</v>
+        <v>3351759</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9834245322172889</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9785139728669606</v>
+        <v>0.9786915586297424</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9872928639077485</v>
+        <v>0.9874524171783786</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3203</v>
@@ -6950,19 +6950,19 @@
         <v>3391329</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3360769</v>
+        <v>3362018</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3413327</v>
+        <v>3415124</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9567750888634561</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9481533159834745</v>
+        <v>0.9485055636139477</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9629809934328657</v>
+        <v>0.9634881102014486</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6377</v>
@@ -6971,19 +6971,19 @@
         <v>6729417</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6699127</v>
+        <v>6697314</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6759163</v>
+        <v>6757309</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9698113982241425</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9654461993790979</v>
+        <v>0.9651849455769658</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9740982611432623</v>
+        <v>0.9738311061337773</v>
       </c>
     </row>
     <row r="30">
@@ -7319,19 +7319,19 @@
         <v>6883</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3147</v>
+        <v>2977</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12484</v>
+        <v>11969</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02158878555461164</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009869873285855818</v>
+        <v>0.009337862559299397</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03915451438333833</v>
+        <v>0.03753738553362513</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -7340,19 +7340,19 @@
         <v>11421</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7111</v>
+        <v>6722</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16879</v>
+        <v>16169</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0361346228227933</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02249915310374277</v>
+        <v>0.02126783652268412</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05340336899894128</v>
+        <v>0.05115821514000982</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -7361,19 +7361,19 @@
         <v>18304</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12475</v>
+        <v>12441</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25976</v>
+        <v>26203</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02882980584644593</v>
+        <v>0.02882980584644592</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01964869585276995</v>
+        <v>0.01959556070139454</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04091285596384762</v>
+        <v>0.04127037188759266</v>
       </c>
     </row>
     <row r="5">
@@ -7390,19 +7390,19 @@
         <v>311962</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>306361</v>
+        <v>306876</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>315698</v>
+        <v>315868</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9784112144453883</v>
+        <v>0.9784112144453885</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9608454856166615</v>
+        <v>0.9624626144663755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9901301267141442</v>
+        <v>0.9906621374407006</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>516</v>
@@ -7411,19 +7411,19 @@
         <v>304640</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>299182</v>
+        <v>299892</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308950</v>
+        <v>309339</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9638653771772068</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9465966310010581</v>
+        <v>0.9488417848599902</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9775008468962569</v>
+        <v>0.9787321634773157</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>838</v>
@@ -7432,19 +7432,19 @@
         <v>616602</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>608930</v>
+        <v>608703</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>622431</v>
+        <v>622465</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9711701941535542</v>
+        <v>0.9711701941535541</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9590871440361523</v>
+        <v>0.9587296281124073</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.98035130414723</v>
+        <v>0.9804044392986054</v>
       </c>
     </row>
     <row r="6">
@@ -7536,19 +7536,19 @@
         <v>19511</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11019</v>
+        <v>11578</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30983</v>
+        <v>31543</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03676826330011617</v>
+        <v>0.03676826330011618</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02076570388267686</v>
+        <v>0.02181948467098009</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05838633654376178</v>
+        <v>0.05944331468573157</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -7557,19 +7557,19 @@
         <v>40000</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30754</v>
+        <v>31181</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50837</v>
+        <v>52393</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0731936010458978</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05627482511246937</v>
+        <v>0.05705694619151293</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09302309791252901</v>
+        <v>0.09587136548236731</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -7578,19 +7578,19 @@
         <v>59511</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46272</v>
+        <v>47503</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73558</v>
+        <v>74500</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05524888433781619</v>
+        <v>0.05524888433781618</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04295830500836448</v>
+        <v>0.04410106446062449</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06828977254207717</v>
+        <v>0.06916487249500185</v>
       </c>
     </row>
     <row r="8">
@@ -7607,19 +7607,19 @@
         <v>511136</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>499664</v>
+        <v>499104</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>519628</v>
+        <v>519069</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9632317366998838</v>
+        <v>0.9632317366998839</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9416136634562383</v>
+        <v>0.9405566853142685</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9792342961173229</v>
+        <v>0.97818051532902</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>656</v>
@@ -7628,19 +7628,19 @@
         <v>506494</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>495657</v>
+        <v>494101</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>515740</v>
+        <v>515313</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9268063989541022</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9069769020874711</v>
+        <v>0.9041286345176326</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9437251748875305</v>
+        <v>0.9429430538084871</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1021</v>
@@ -7649,19 +7649,19 @@
         <v>1017630</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1003583</v>
+        <v>1002641</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1030869</v>
+        <v>1029638</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9447511156621838</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9317102274579229</v>
+        <v>0.9308351275049979</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9570416949916356</v>
+        <v>0.9558989355393755</v>
       </c>
     </row>
     <row r="9">
@@ -7753,19 +7753,19 @@
         <v>22051</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15174</v>
+        <v>15559</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30296</v>
+        <v>31052</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06978183230626585</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04801890055146875</v>
+        <v>0.04923860704729304</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09587611650768106</v>
+        <v>0.09826772565567417</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -7774,19 +7774,19 @@
         <v>48175</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38693</v>
+        <v>39384</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58256</v>
+        <v>58114</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1351781215144333</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1085727272159665</v>
+        <v>0.1105106738212455</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1634653926462846</v>
+        <v>0.1630661152688179</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>122</v>
@@ -7795,19 +7795,19 @@
         <v>70226</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57674</v>
+        <v>59038</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83507</v>
+        <v>84340</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1044440746810577</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08577614717029691</v>
+        <v>0.08780476968125356</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1241970329770243</v>
+        <v>0.1254364280545325</v>
       </c>
     </row>
     <row r="11">
@@ -7824,19 +7824,19 @@
         <v>293942</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>285697</v>
+        <v>284941</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>300819</v>
+        <v>300434</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9302181676937342</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9041238834923186</v>
+        <v>0.9017322743443255</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9519810994485312</v>
+        <v>0.9507613929527069</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>447</v>
@@ -7845,19 +7845,19 @@
         <v>308206</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>298125</v>
+        <v>298267</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>317688</v>
+        <v>316997</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8648218784855666</v>
+        <v>0.8648218784855667</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8365346073537154</v>
+        <v>0.8369338847311821</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8914272727840334</v>
+        <v>0.8894893261787544</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>774</v>
@@ -7866,19 +7866,19 @@
         <v>602149</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>588868</v>
+        <v>588035</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>614701</v>
+        <v>613337</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8955559253189426</v>
+        <v>0.8955559253189423</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8758029670229759</v>
+        <v>0.8745635719454674</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.914223852829703</v>
+        <v>0.9121952303187464</v>
       </c>
     </row>
     <row r="12">
@@ -7970,19 +7970,19 @@
         <v>19740</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12866</v>
+        <v>13148</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30833</v>
+        <v>30326</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0529020186634313</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03447912943772054</v>
+        <v>0.03523528709688464</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08262894891569961</v>
+        <v>0.08127026683952607</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -7991,19 +7991,19 @@
         <v>30800</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23998</v>
+        <v>23662</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38408</v>
+        <v>39848</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07299322421706125</v>
+        <v>0.07299322421706127</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05687190337772716</v>
+        <v>0.05607605232989014</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0910231203171508</v>
+        <v>0.09443580898399154</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -8012,19 +8012,19 @@
         <v>50540</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40163</v>
+        <v>40620</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62257</v>
+        <v>63577</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06356437892246571</v>
+        <v>0.06356437892246569</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05051258231588875</v>
+        <v>0.05108802508928876</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07830071312167917</v>
+        <v>0.0799597879774427</v>
       </c>
     </row>
     <row r="14">
@@ -8041,19 +8041,19 @@
         <v>353405</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342312</v>
+        <v>342819</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360279</v>
+        <v>359997</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9470979813365689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9173710510843004</v>
+        <v>0.918729733160472</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9655208705622795</v>
+        <v>0.9647647129031153</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>532</v>
@@ -8062,19 +8062,19 @@
         <v>391161</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>383553</v>
+        <v>382113</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>397963</v>
+        <v>398299</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9270067757829388</v>
+        <v>0.9270067757829389</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9089768796828491</v>
+        <v>0.9055641910160089</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9431280966222729</v>
+        <v>0.9439239476701099</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>799</v>
@@ -8083,19 +8083,19 @@
         <v>744567</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>732850</v>
+        <v>731530</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>754944</v>
+        <v>754487</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9364356210775344</v>
+        <v>0.9364356210775341</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9216992868783209</v>
+        <v>0.9200402120225574</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9494874176841113</v>
+        <v>0.9489119749107112</v>
       </c>
     </row>
     <row r="15">
@@ -8187,19 +8187,19 @@
         <v>11806</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7745</v>
+        <v>7784</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17554</v>
+        <v>18595</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05740234023952299</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0376574700833358</v>
+        <v>0.0378466217494824</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08535344670720564</v>
+        <v>0.09041347832113596</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>79</v>
@@ -8208,19 +8208,19 @@
         <v>29995</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24028</v>
+        <v>24046</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36330</v>
+        <v>37114</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1310280144540179</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1049639035346101</v>
+        <v>0.1050413199936505</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.15870193031956</v>
+        <v>0.1621278875778017</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>100</v>
@@ -8229,19 +8229,19 @@
         <v>41800</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34259</v>
+        <v>34304</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50323</v>
+        <v>50528</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09618489432287831</v>
+        <v>0.0961848943228783</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07883298588700322</v>
+        <v>0.07893575966440051</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.115797280377157</v>
+        <v>0.1162668986203426</v>
       </c>
     </row>
     <row r="17">
@@ -8258,19 +8258,19 @@
         <v>193859</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>188111</v>
+        <v>187070</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197920</v>
+        <v>197881</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9425976597604769</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9146465532927948</v>
+        <v>0.9095865216788643</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9623425299166642</v>
+        <v>0.9621533782505177</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>416</v>
@@ -8279,19 +8279,19 @@
         <v>198923</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>192588</v>
+        <v>191804</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>204890</v>
+        <v>204872</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8689719855459822</v>
+        <v>0.8689719855459821</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8412980696804401</v>
+        <v>0.8378721124221983</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8950360964653898</v>
+        <v>0.8949586800063495</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>674</v>
@@ -8300,19 +8300,19 @@
         <v>392782</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>384259</v>
+        <v>384054</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>400323</v>
+        <v>400278</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9038151056771216</v>
+        <v>0.9038151056771218</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8842027196228431</v>
+        <v>0.8837331013796574</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9211670141129967</v>
+        <v>0.9210642403355996</v>
       </c>
     </row>
     <row r="18">
@@ -8404,19 +8404,19 @@
         <v>27065</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20319</v>
+        <v>20648</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35195</v>
+        <v>35758</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.09998063615501691</v>
+        <v>0.09998063615501693</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07505831616046767</v>
+        <v>0.0762738543367775</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1300123262431408</v>
+        <v>0.1320917135251287</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>84</v>
@@ -8425,19 +8425,19 @@
         <v>34555</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27419</v>
+        <v>27559</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43064</v>
+        <v>41782</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.131015143997401</v>
+        <v>0.1310151439974009</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1039580997042444</v>
+        <v>0.104490235458166</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1632750444451809</v>
+        <v>0.1584138483529522</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>139</v>
@@ -8446,19 +8446,19 @@
         <v>61621</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51108</v>
+        <v>50660</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72167</v>
+        <v>72752</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1152959119387938</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09562554182524299</v>
+        <v>0.09478687839045534</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1350293742551135</v>
+        <v>0.1361240889370208</v>
       </c>
     </row>
     <row r="20">
@@ -8475,19 +8475,19 @@
         <v>243642</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>235512</v>
+        <v>234949</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>250388</v>
+        <v>250059</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9000193638449832</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8699876737568591</v>
+        <v>0.8679082864748712</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9249416838395323</v>
+        <v>0.9237261456632224</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>376</v>
@@ -8496,19 +8496,19 @@
         <v>229195</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>220686</v>
+        <v>221968</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>236331</v>
+        <v>236191</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8689848560025991</v>
+        <v>0.8689848560025989</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8367249555548192</v>
+        <v>0.841586151647048</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8960419002957555</v>
+        <v>0.895509764541834</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>692</v>
@@ -8517,19 +8517,19 @@
         <v>472836</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>462290</v>
+        <v>461705</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>483349</v>
+        <v>483797</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8847040880612062</v>
+        <v>0.884704088061206</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8649706257448861</v>
+        <v>0.8638759110629792</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9043744581747568</v>
+        <v>0.9052131216095447</v>
       </c>
     </row>
     <row r="21">
@@ -8621,19 +8621,19 @@
         <v>24615</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16521</v>
+        <v>16915</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35211</v>
+        <v>35473</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0342021435589882</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02295640641351744</v>
+        <v>0.02350320170888665</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04892538580051341</v>
+        <v>0.04928892883995381</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>118</v>
@@ -8642,19 +8642,19 @@
         <v>83423</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>69746</v>
+        <v>70087</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>98418</v>
+        <v>99436</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1080533790550017</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09033772279597399</v>
+        <v>0.09077981991583048</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1274754182210636</v>
+        <v>0.1287938324792683</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>144</v>
@@ -8663,19 +8663,19 @@
         <v>108038</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>91240</v>
+        <v>91249</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>129174</v>
+        <v>125530</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07242408604628228</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06116299060540586</v>
+        <v>0.06116924304166615</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08659253929225455</v>
+        <v>0.08414983152418432</v>
       </c>
     </row>
     <row r="23">
@@ -8692,19 +8692,19 @@
         <v>695072</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>684476</v>
+        <v>684214</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>703166</v>
+        <v>702772</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9657978564410117</v>
+        <v>0.9657978564410119</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9510746141994865</v>
+        <v>0.9507110711600462</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9770435935864826</v>
+        <v>0.9764967982911134</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>842</v>
@@ -8713,19 +8713,19 @@
         <v>688634</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>673639</v>
+        <v>672621</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>702311</v>
+        <v>701970</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8919466209449981</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8725245817789365</v>
+        <v>0.8712061675207315</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9096622772040263</v>
+        <v>0.9092201800841694</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1415</v>
@@ -8734,19 +8734,19 @@
         <v>1383706</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1362570</v>
+        <v>1366214</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1400504</v>
+        <v>1400495</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9275759139537177</v>
+        <v>0.9275759139537179</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9134074607077454</v>
+        <v>0.9158501684758157</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.938837009394594</v>
+        <v>0.938830756958334</v>
       </c>
     </row>
     <row r="24">
@@ -8838,19 +8838,19 @@
         <v>35744</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27664</v>
+        <v>26575</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>47016</v>
+        <v>47428</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04478759099710695</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03466329067004876</v>
+        <v>0.03329852258110971</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05891200154638625</v>
+        <v>0.05942845174071187</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>118</v>
@@ -8859,19 +8859,19 @@
         <v>78244</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65204</v>
+        <v>65660</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>92828</v>
+        <v>93169</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.09411935662402811</v>
+        <v>0.09411935662402814</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07843379461244175</v>
+        <v>0.07898140634696141</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.111661535067316</v>
+        <v>0.112071691236092</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>165</v>
@@ -8880,19 +8880,19 @@
         <v>113988</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>97475</v>
+        <v>97251</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>133480</v>
+        <v>131586</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06995695642132545</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05982225097767851</v>
+        <v>0.05968522993228991</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08191961302598355</v>
+        <v>0.08075720061707722</v>
       </c>
     </row>
     <row r="26">
@@ -8909,19 +8909,19 @@
         <v>762328</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>751056</v>
+        <v>750644</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>770408</v>
+        <v>771497</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9552124090028931</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9410879984536138</v>
+        <v>0.9405715482592881</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9653367093299513</v>
+        <v>0.9667014774188903</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>944</v>
@@ -8930,19 +8930,19 @@
         <v>753087</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>738503</v>
+        <v>738162</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>766127</v>
+        <v>765671</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9058806433759719</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8883384649326842</v>
+        <v>0.8879283087639079</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9215662053875582</v>
+        <v>0.9210185936530384</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1659</v>
@@ -8951,19 +8951,19 @@
         <v>1515415</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1495923</v>
+        <v>1497817</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1531928</v>
+        <v>1532152</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9300430435786745</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9180803869740165</v>
+        <v>0.9192427993829227</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9401777490223215</v>
+        <v>0.9403147700677101</v>
       </c>
     </row>
     <row r="27">
@@ -9055,19 +9055,19 @@
         <v>167415</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>143791</v>
+        <v>146826</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>190798</v>
+        <v>192641</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04738922611486249</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04070212654548613</v>
+        <v>0.0415612714241106</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05400811772009118</v>
+        <v>0.05452977761981796</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>638</v>
@@ -9076,19 +9076,19 @@
         <v>356614</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>326490</v>
+        <v>331329</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>383739</v>
+        <v>387319</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.095428934882403</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08736805592527144</v>
+        <v>0.0886627484541215</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1026875376253002</v>
+        <v>0.1036457414574683</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>871</v>
@@ -9097,19 +9097,19 @@
         <v>524028</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>487831</v>
+        <v>485780</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>560913</v>
+        <v>559197</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.07208375173044687</v>
+        <v>0.07208375173044686</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06710459366514861</v>
+        <v>0.06682238111472351</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07715745636858799</v>
+        <v>0.07692147858433436</v>
       </c>
     </row>
     <row r="29">
@@ -9126,19 +9126,19 @@
         <v>3365347</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3341964</v>
+        <v>3340121</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3388971</v>
+        <v>3385936</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9526107738851377</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9459918822799089</v>
+        <v>0.9454702223801821</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.959297873454514</v>
+        <v>0.9584387285758894</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4729</v>
@@ -9147,19 +9147,19 @@
         <v>3380340</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3353215</v>
+        <v>3349635</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3410464</v>
+        <v>3405625</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9045710651175971</v>
+        <v>0.904571065117597</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8973124623746999</v>
+        <v>0.8963542585425317</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9126319440747285</v>
+        <v>0.9113372515458784</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7872</v>
@@ -9168,19 +9168,19 @@
         <v>6745688</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6708803</v>
+        <v>6710519</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6781885</v>
+        <v>6783936</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9279162482695532</v>
+        <v>0.9279162482695531</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.922842543631412</v>
+        <v>0.9230785214156657</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9328954063348515</v>
+        <v>0.9331776188852764</v>
       </c>
     </row>
     <row r="30">
